--- a/public/static/importTemp/教材批量导入模板.xlsx
+++ b/public/static/importTemp/教材批量导入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24996\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\student\Graduation-Project-ui\public\static\importTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014EABA6-FEDB-4251-A4FA-7820AE5FFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFEAA2C-705F-4C36-B475-2A3A39D347AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5472" yWindow="2016" windowWidth="23832" windowHeight="15072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>教材编号</t>
   </si>
@@ -34,18 +34,7 @@
     <t>教材名字</t>
   </si>
   <si>
-    <t>年级</t>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教材单价</t>
-  </si>
-  <si>
-    <t>互联网工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LB00001</t>
@@ -410,145 +399,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="5:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="5:5" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="3:3" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="3:3" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,52 +539,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F3D851-061C-4858-A665-11354574509E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" s="4">
         <v>23.2</v>
       </c>
     </row>
